--- a/xtt_demo/ZXXT_DEMO_150_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_150_R.XLSX
@@ -412,7 +412,7 @@
         <v>2402</v>
       </c>
       <c r="G2" s="7">
-        <v>43861.000000000000</v>
+        <v>44190.000000000000</v>
       </c>
       <c r="H2" s="8">
         <v>0.4375000000000000</v>
@@ -427,7 +427,7 @@
         <v>475</v>
       </c>
       <c r="L2" s="9">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M2" s="10" t="s">
         <v>9</v>
@@ -453,7 +453,7 @@
         <v>2402</v>
       </c>
       <c r="G3" s="7">
-        <v>43941.000000000000</v>
+        <v>44270.000000000000</v>
       </c>
       <c r="H3" s="8">
         <v>0.4375000000000000</v>
@@ -468,7 +468,7 @@
         <v>475</v>
       </c>
       <c r="L3" s="9">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>9</v>
@@ -494,7 +494,7 @@
         <v>2402</v>
       </c>
       <c r="G4" s="7">
-        <v>44010.000000000000</v>
+        <v>44344.000000000000</v>
       </c>
       <c r="H4" s="8">
         <v>0.4375000000000000</v>
@@ -509,7 +509,7 @@
         <v>475</v>
       </c>
       <c r="L4" s="9">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="M4" s="10" t="s">
         <v>9</v>
@@ -535,7 +535,7 @@
         <v>2402</v>
       </c>
       <c r="G5" s="7">
-        <v>44021.000000000000</v>
+        <v>44350.000000000000</v>
       </c>
       <c r="H5" s="8">
         <v>0.4375000000000000</v>
@@ -550,7 +550,7 @@
         <v>475</v>
       </c>
       <c r="L5" s="9">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="M5" s="10" t="s">
         <v>9</v>
@@ -576,7 +576,7 @@
         <v>2402</v>
       </c>
       <c r="G6" s="7">
-        <v>44040.000000000000</v>
+        <v>44375.000000000000</v>
       </c>
       <c r="H6" s="8">
         <v>0.4375000000000000</v>
@@ -591,7 +591,7 @@
         <v>475</v>
       </c>
       <c r="L6" s="9">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="M6" s="10" t="s">
         <v>9</v>
@@ -617,7 +617,7 @@
         <v>2402</v>
       </c>
       <c r="G7" s="7">
-        <v>44101.000000000000</v>
+        <v>44430.000000000000</v>
       </c>
       <c r="H7" s="8">
         <v>0.4375000000000000</v>
@@ -632,7 +632,7 @@
         <v>475</v>
       </c>
       <c r="L7" s="9">
-        <v>453</v>
+        <v>3</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>9</v>
@@ -658,7 +658,7 @@
         <v>2402</v>
       </c>
       <c r="G8" s="7">
-        <v>44181.000000000000</v>
+        <v>44510.000000000000</v>
       </c>
       <c r="H8" s="8">
         <v>0.4375000000000000</v>
@@ -673,7 +673,7 @@
         <v>475</v>
       </c>
       <c r="L8" s="9">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>9</v>
@@ -699,7 +699,7 @@
         <v>2402</v>
       </c>
       <c r="G9" s="7">
-        <v>44261.000000000000</v>
+        <v>44590.000000000000</v>
       </c>
       <c r="H9" s="8">
         <v>0.4375000000000000</v>
@@ -714,7 +714,7 @@
         <v>475</v>
       </c>
       <c r="L9" s="9">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="M9" s="10" t="s">
         <v>9</v>
@@ -739,7 +739,7 @@
         <v>3800</v>
       </c>
       <c r="L10" s="15">
-        <v>2829</v>
+        <v>2382</v>
       </c>
       <c r="M10" s="16" t="s">
         <v>9</v>
@@ -765,7 +765,7 @@
         <v>0408</v>
       </c>
       <c r="G11" s="7">
-        <v>43861.000000000000</v>
+        <v>44190.000000000000</v>
       </c>
       <c r="H11" s="8">
         <v>0.8506944444444444</v>
@@ -780,7 +780,7 @@
         <v>385</v>
       </c>
       <c r="L11" s="9">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>11</v>
@@ -806,7 +806,7 @@
         <v>0408</v>
       </c>
       <c r="G12" s="7">
-        <v>43941.000000000000</v>
+        <v>44270.000000000000</v>
       </c>
       <c r="H12" s="8">
         <v>0.8506944444444444</v>
@@ -821,7 +821,7 @@
         <v>385</v>
       </c>
       <c r="L12" s="9">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>0408</v>
       </c>
       <c r="G13" s="7">
-        <v>44021.000000000000</v>
+        <v>44350.000000000000</v>
       </c>
       <c r="H13" s="8">
         <v>0.8506944444444444</v>
@@ -862,7 +862,7 @@
         <v>385</v>
       </c>
       <c r="L13" s="9">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>11</v>
@@ -888,7 +888,7 @@
         <v>0408</v>
       </c>
       <c r="G14" s="7">
-        <v>44101.000000000000</v>
+        <v>44430.000000000000</v>
       </c>
       <c r="H14" s="8">
         <v>0.8506944444444444</v>
@@ -903,7 +903,7 @@
         <v>385</v>
       </c>
       <c r="L14" s="9">
-        <v>367</v>
+        <v>0</v>
       </c>
       <c r="M14" s="10" t="s">
         <v>11</v>
@@ -929,7 +929,7 @@
         <v>0408</v>
       </c>
       <c r="G15" s="7">
-        <v>44181.000000000000</v>
+        <v>44510.000000000000</v>
       </c>
       <c r="H15" s="8">
         <v>0.8506944444444444</v>
@@ -944,7 +944,7 @@
         <v>385</v>
       </c>
       <c r="L15" s="9">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="M15" s="10" t="s">
         <v>11</v>
@@ -970,7 +970,7 @@
         <v>0408</v>
       </c>
       <c r="G16" s="7">
-        <v>44261.000000000000</v>
+        <v>44590.000000000000</v>
       </c>
       <c r="H16" s="8">
         <v>0.8506944444444444</v>
@@ -985,7 +985,7 @@
         <v>385</v>
       </c>
       <c r="L16" s="9">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="M16" s="10" t="s">
         <v>11</v>
@@ -1010,7 +1010,7 @@
         <v>2310</v>
       </c>
       <c r="L17" s="15">
-        <v>1641</v>
+        <v>1233</v>
       </c>
       <c r="M17" s="16" t="s">
         <v>11</v>
@@ -1036,7 +1036,7 @@
         <v>0400</v>
       </c>
       <c r="G18" s="7">
-        <v>43861.000000000000</v>
+        <v>44190.000000000000</v>
       </c>
       <c r="H18" s="8">
         <v>0.4236111111111111</v>
@@ -1051,7 +1051,7 @@
         <v>330</v>
       </c>
       <c r="L18" s="9">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>10</v>
@@ -1076,7 +1076,7 @@
         <v>330</v>
       </c>
       <c r="L19" s="15">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M19" s="16" t="s">
         <v>10</v>
@@ -1101,7 +1101,7 @@
         <v>6440</v>
       </c>
       <c r="L20" s="21">
-        <v>4791</v>
+        <v>3929</v>
       </c>
       <c r="M20" s="22" t="s"/>
     </row>
